--- a/data/trans_orig/IP16B02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B03EDEB2-ABCE-473A-8CEC-D585CDDE7664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54D70439-8EEE-46AA-B3FF-46775D1B689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4CB7C059-8EF2-47B3-98F3-18A64602F644}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{15E6610D-E0B0-4C43-92F1-941D5C391FD2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,12 +67,105 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>10,22%</t>
   </si>
   <si>
@@ -85,9 +178,6 @@
     <t>12,15%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>36,06%</t>
   </si>
   <si>
@@ -100,9 +190,6 @@
     <t>21,99%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>89,78%</t>
   </si>
   <si>
@@ -118,9 +205,6 @@
     <t>63,94%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>89,1%</t>
   </si>
   <si>
@@ -130,52 +214,55 @@
     <t>95,77%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -223,93 +310,6 @@
     <t>96,97%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
     <t>11,2%</t>
   </si>
   <si>
@@ -367,6 +367,69 @@
     <t>Menores según si ha consumido medicinas para el dolory/o para bajar la fiebre recetados por el médico en 2012 (Tasa respuesta: 10,39%)</t>
   </si>
   <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
     <t>7,21%</t>
   </si>
   <si>
@@ -415,58 +478,58 @@
     <t>90,49%</t>
   </si>
   <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>12,74%</t>
@@ -523,69 +586,6 @@
     <t>92,43%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
     <t>12,52%</t>
   </si>
   <si>
@@ -637,6 +637,60 @@
     <t>Menores según si ha consumido medicinas para el dolory/o para bajar la fiebre recetados por el médico en 2015 (Tasa respuesta: 8,04%)</t>
   </si>
   <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
     <t>10,97%</t>
   </si>
   <si>
@@ -691,52 +745,52 @@
     <t>94,68%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
   </si>
   <si>
     <t>5,69%</t>
@@ -779,60 +833,6 @@
   </si>
   <si>
     <t>97,56%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
   </si>
   <si>
     <t>3,85%</t>
@@ -1272,7 +1272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F38BF9-A1EE-425C-813B-80E5A8273E1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B794D2-6F7B-4BD4-BEF6-7AA8CEB365BC}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1390,10 +1390,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1973</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1405,85 +1405,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1282</v>
+        <v>833</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>833</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>5</v>
-      </c>
-      <c r="N4" s="7">
-        <v>3254</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1643</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>26</v>
-      </c>
-      <c r="D5" s="7">
-        <v>17337</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4029</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7">
-        <v>9271</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>7</v>
+      </c>
+      <c r="N5" s="7">
+        <v>5672</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>41</v>
-      </c>
-      <c r="N5" s="7">
-        <v>26609</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,54 +1492,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>19310</v>
+        <v>1643</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>10553</v>
+        <v>4862</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>29863</v>
+        <v>6505</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1551,13 +1551,13 @@
         <v>654</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -1566,13 +1566,13 @@
         <v>3753</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -1581,19 +1581,19 @@
         <v>4407</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
@@ -1602,13 +1602,13 @@
         <v>6365</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1617,13 +1617,13 @@
         <v>1294</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -1632,13 +1632,13 @@
         <v>7659</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,13 +1653,13 @@
         <v>7019</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -1668,13 +1668,13 @@
         <v>5047</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -1683,117 +1683,117 @@
         <v>12066</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>1360</v>
+        <v>1973</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1664</v>
+        <v>1282</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="7">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3254</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="7">
-        <v>4</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3024</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7">
-        <v>13677</v>
+        <v>17337</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="7">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7">
+        <v>9271</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>41</v>
+      </c>
+      <c r="N11" s="7">
+        <v>26609</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="7">
-        <v>13</v>
-      </c>
-      <c r="I11" s="7">
-        <v>9556</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="7">
-        <v>33</v>
-      </c>
-      <c r="N11" s="7">
-        <v>23233</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,153 +1802,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7">
-        <v>15037</v>
+        <v>19310</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I12" s="7">
-        <v>11220</v>
+        <v>10553</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N12" s="7">
-        <v>26257</v>
+        <v>29863</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>2591</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>833</v>
+        <v>454</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="7">
+        <v>5</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3044</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>833</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7">
         <v>20</v>
       </c>
-      <c r="C14" s="7">
-        <v>2</v>
-      </c>
       <c r="D14" s="7">
-        <v>1643</v>
+        <v>13125</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>4029</v>
+        <v>8471</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="N14" s="7">
-        <v>5672</v>
+        <v>21596</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,129 +1957,129 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D15" s="7">
-        <v>1643</v>
+        <v>15716</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I15" s="7">
-        <v>4862</v>
+        <v>8925</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N15" s="7">
-        <v>6505</v>
+        <v>24640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1360</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1664</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
-        <v>2591</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>454</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" s="7">
-        <v>5</v>
-      </c>
       <c r="N16" s="7">
-        <v>3044</v>
+        <v>3024</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>13125</v>
+        <v>13677</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>8471</v>
+        <v>9556</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>85</v>
@@ -2088,13 +2088,13 @@
         <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N17" s="7">
-        <v>21596</v>
+        <v>23233</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>87</v>
@@ -2112,49 +2112,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="7">
-        <v>15716</v>
+        <v>15037</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>8925</v>
+        <v>11220</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N18" s="7">
-        <v>24640</v>
+        <v>26257</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,7 +2213,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>78</v>
@@ -2273,13 +2273,13 @@
         <v>58725</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>61</v>
@@ -2288,13 +2288,13 @@
         <v>40607</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>149</v>
@@ -2303,13 +2303,13 @@
         <v>99332</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2330,7 +2330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1ED40D-FBA1-46B7-9D41-F3E662243FCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136F281A-FCEC-49B6-922E-7DF8303640B6}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2448,100 +2448,96 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="7">
-        <v>9</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6256</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="7">
-        <v>7576</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
-      </c>
-      <c r="D5" s="7">
-        <v>16981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="H5" s="7">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>18586</v>
+        <v>3342</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>35567</v>
+        <v>3342</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,54 +2546,52 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>27</v>
-      </c>
-      <c r="D6" s="7">
-        <v>18301</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="H6" s="7">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>24842</v>
+        <v>3342</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>43143</v>
+        <v>3342</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2609,13 +2603,13 @@
         <v>2124</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2624,13 +2618,13 @@
         <v>2002</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -2639,19 +2633,19 @@
         <v>4126</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>21</v>
@@ -2660,13 +2654,13 @@
         <v>14881</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -2675,13 +2669,13 @@
         <v>10202</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M8" s="7">
         <v>34</v>
@@ -2690,13 +2684,13 @@
         <v>25084</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2705,13 @@
         <v>17005</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -2726,13 +2720,13 @@
         <v>12204</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>40</v>
@@ -2741,117 +2735,117 @@
         <v>29210</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2491</v>
+        <v>1320</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>3662</v>
+        <v>6256</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="M10" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>6153</v>
+        <v>7576</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>17061</v>
+        <v>16981</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I11" s="7">
-        <v>17157</v>
+        <v>18586</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M11" s="7">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N11" s="7">
-        <v>34217</v>
+        <v>35567</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,149 +2854,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7">
-        <v>19552</v>
+        <v>18301</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I12" s="7">
-        <v>20819</v>
+        <v>24842</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N12" s="7">
-        <v>40370</v>
+        <v>43143</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3398</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>3110</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>6508</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D14" s="7">
+        <v>16317</v>
+      </c>
       <c r="E14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="7">
+        <v>22</v>
+      </c>
+      <c r="I14" s="7">
+        <v>14394</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M14" s="7">
+        <v>46</v>
+      </c>
+      <c r="N14" s="7">
+        <v>30710</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3342</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="7">
-        <v>4</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3342</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,61 +3009,63 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="D15" s="7">
+        <v>19715</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I15" s="7">
-        <v>3342</v>
+        <v>17504</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="N15" s="7">
-        <v>3342</v>
+        <v>37218</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>3398</v>
+        <v>2491</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>164</v>
@@ -3080,7 +3080,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>3110</v>
+        <v>3662</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>167</v>
@@ -3092,10 +3092,10 @@
         <v>169</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>6508</v>
+        <v>6153</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>170</v>
@@ -3110,13 +3110,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="7">
-        <v>16317</v>
+        <v>17061</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>173</v>
@@ -3128,10 +3128,10 @@
         <v>175</v>
       </c>
       <c r="H17" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I17" s="7">
-        <v>14394</v>
+        <v>17157</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>176</v>
@@ -3146,7 +3146,7 @@
         <v>46</v>
       </c>
       <c r="N17" s="7">
-        <v>30710</v>
+        <v>34217</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>179</v>
@@ -3164,49 +3164,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" s="7">
-        <v>19715</v>
+        <v>19552</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>17504</v>
+        <v>20819</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N18" s="7">
-        <v>37218</v>
+        <v>40370</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,7 +3226,7 @@
         <v>182</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>183</v>
@@ -3265,7 +3265,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>93</v>
@@ -3280,7 +3280,7 @@
         <v>191</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>90</v>
@@ -3325,13 +3325,13 @@
         <v>74573</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>112</v>
@@ -3340,13 +3340,13 @@
         <v>78711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>218</v>
@@ -3355,13 +3355,13 @@
         <v>153284</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3382,7 +3382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AC9CB6-593E-4BDB-B4D1-84EE5BED97D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD03401E-0430-422A-8709-1FEDEE5C247E}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3500,100 +3500,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1982</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>2336</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>4317</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1003</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1203</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2205</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>24</v>
-      </c>
-      <c r="D5" s="7">
-        <v>16083</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H5" s="7">
-        <v>27</v>
-      </c>
-      <c r="I5" s="7">
-        <v>16661</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M5" s="7">
-        <v>51</v>
-      </c>
-      <c r="N5" s="7">
-        <v>32745</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,54 +3602,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>18065</v>
+        <v>1003</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>18997</v>
+        <v>1203</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>37062</v>
+        <v>2205</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3661,13 +3661,13 @@
         <v>652</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3676,13 +3676,13 @@
         <v>3223</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -3691,19 +3691,19 @@
         <v>3876</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -3712,13 +3712,13 @@
         <v>4979</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -3727,13 +3727,13 @@
         <v>6771</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -3742,13 +3742,13 @@
         <v>11750</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3763,13 @@
         <v>5631</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -3778,13 +3778,13 @@
         <v>9994</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -3793,117 +3793,117 @@
         <v>15626</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>718</v>
+        <v>1982</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>2112</v>
+        <v>2336</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>2830</v>
+        <v>4317</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>11896</v>
+        <v>16083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7">
-        <v>16224</v>
+        <v>16661</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N11" s="7">
-        <v>28121</v>
+        <v>32745</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,153 +3912,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7">
-        <v>12614</v>
+        <v>18065</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I12" s="7">
-        <v>18336</v>
+        <v>18997</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="N12" s="7">
-        <v>30951</v>
+        <v>37062</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1291</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>2691</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>3982</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>62</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D14" s="7">
-        <v>1003</v>
+        <v>13075</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <v>19</v>
+      </c>
+      <c r="I14" s="7">
+        <v>10753</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M14" s="7">
+        <v>40</v>
+      </c>
+      <c r="N14" s="7">
+        <v>23828</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1203</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2205</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>30</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,132 +4067,132 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D15" s="7">
-        <v>1003</v>
+        <v>14366</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I15" s="7">
-        <v>1203</v>
+        <v>13444</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="N15" s="7">
-        <v>2205</v>
+        <v>27810</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1291</v>
+        <v>718</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2112</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M16" s="7">
         <v>4</v>
       </c>
-      <c r="I16" s="7">
-        <v>2691</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M16" s="7">
-        <v>6</v>
-      </c>
       <c r="N16" s="7">
-        <v>3982</v>
+        <v>2830</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>13075</v>
+        <v>11896</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I17" s="7">
-        <v>10753</v>
+        <v>16224</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>259</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>260</v>
@@ -4201,10 +4201,10 @@
         <v>261</v>
       </c>
       <c r="M17" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N17" s="7">
-        <v>23828</v>
+        <v>28121</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>262</v>
@@ -4222,49 +4222,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>14366</v>
+        <v>12614</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I18" s="7">
-        <v>13444</v>
+        <v>18336</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N18" s="7">
-        <v>27810</v>
+        <v>30951</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,7 +4281,7 @@
         <v>4643</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>265</v>
@@ -4323,7 +4323,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>69</v>
@@ -4332,7 +4332,7 @@
         <v>47036</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>273</v>
@@ -4383,13 +4383,13 @@
         <v>51679</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>95</v>
@@ -4398,13 +4398,13 @@
         <v>61975</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>171</v>
@@ -4413,13 +4413,13 @@
         <v>113654</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54D70439-8EEE-46AA-B3FF-46775D1B689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FDE2A07-4C5A-4ADB-A270-954C99BAB91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{15E6610D-E0B0-4C43-92F1-941D5C391FD2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{84EFD41A-8C7C-4B89-93CD-C7CB255AEF20}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="281">
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolory/o para bajar la fiebre recetados por el médico en 2007 (Tasa respuesta: 7,08%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="280">
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2007 (Tasa respuesta: 7,08%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -70,6 +70,30 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -94,601 +118,601 @@
     <t>55,67%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>38,52%</t>
+    <t>39,84%</t>
   </si>
   <si>
     <t>74,36%</t>
   </si>
   <si>
-    <t>35,65%</t>
+    <t>35,85%</t>
   </si>
   <si>
     <t>36,52%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
   <si>
     <t>12,15%</t>
   </si>
   <si>
-    <t>36,06%</t>
+    <t>36,51%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
     <t>16,48%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>23,91%</t>
+    <t>23,38%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>26,99%</t>
+    <t>27,29%</t>
   </si>
   <si>
     <t>14,83%</t>
   </si>
   <si>
-    <t>43,12%</t>
+    <t>43,29%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
   </si>
   <si>
     <t>19,66%</t>
   </si>
   <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2012 (Tasa respuesta: 10,39%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolory/o para bajar la fiebre recetados por el médico en 2012 (Tasa respuesta: 10,39%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
   </si>
   <si>
     <t>17,24%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
   </si>
   <si>
     <t>17,77%</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
   </si>
   <si>
     <t>17,49%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
   </si>
   <si>
     <t>12,74%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
   </si>
   <si>
     <t>15,24%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>20,4%</t>
+    <t>19,39%</t>
   </si>
   <si>
     <t>19,1%</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
   </si>
   <si>
     <t>15,89%</t>
   </si>
   <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolory/o para bajar la fiebre recetados por el médico en 2015 (Tasa respuesta: 8,04%)</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2015 (Tasa respuesta: 8,04%)</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
   </si>
   <si>
     <t>11,58%</t>
   </si>
   <si>
-    <t>57,32%</t>
+    <t>54,97%</t>
   </si>
   <si>
     <t>32,25%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
   </si>
   <si>
     <t>24,8%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>10,97%</t>
@@ -697,190 +721,163 @@
     <t>3,21%</t>
   </si>
   <si>
-    <t>28,04%</t>
+    <t>28,42%</t>
   </si>
   <si>
     <t>12,29%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
   </si>
   <si>
     <t>11,65%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>27,93%</t>
+    <t>29,83%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
   </si>
   <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
   <si>
     <t>16,72%</t>
   </si>
   <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
   </si>
 </sst>
 </file>
@@ -891,7 +888,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -987,39 +984,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1071,7 +1068,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1182,13 +1179,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1197,6 +1187,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1261,19 +1258,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B794D2-6F7B-4BD4-BEF6-7AA8CEB365BC}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1DA84C-C5AB-486F-A6E8-6B3ABAC57E1C}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1390,10 +1407,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1643</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1405,34 +1422,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>833</v>
+        <v>4029</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>833</v>
+        <v>5672</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1441,10 +1458,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1643</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1456,34 +1473,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>4029</v>
+        <v>833</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>5672</v>
+        <v>833</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,13 +1515,13 @@
         <v>1643</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -1513,13 +1530,13 @@
         <v>4862</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -1528,13 +1545,13 @@
         <v>6505</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1545,40 +1562,40 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>654</v>
+        <v>6365</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>3753</v>
+        <v>1294</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>4407</v>
+        <v>7659</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>31</v>
@@ -1596,40 +1613,40 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>6365</v>
+        <v>654</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>1294</v>
+        <v>3753</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>7659</v>
+        <v>4407</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>38</v>
@@ -1653,13 +1670,13 @@
         <v>7019</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -1668,13 +1685,13 @@
         <v>5047</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -1683,13 +1700,13 @@
         <v>12066</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1700,10 +1717,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>1973</v>
+        <v>17337</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
@@ -1715,25 +1732,25 @@
         <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>1282</v>
+        <v>9271</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="N10" s="7">
-        <v>3254</v>
+        <v>26609</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>47</v>
@@ -1751,10 +1768,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>17337</v>
+        <v>1973</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>50</v>
@@ -1766,25 +1783,25 @@
         <v>52</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>9271</v>
+        <v>1282</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M11" s="7">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>26609</v>
+        <v>3254</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>55</v>
@@ -1808,13 +1825,13 @@
         <v>19310</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -1823,13 +1840,13 @@
         <v>10553</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>46</v>
@@ -1838,13 +1855,13 @@
         <v>29863</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1855,10 +1872,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>2591</v>
+        <v>13125</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>59</v>
@@ -1870,25 +1887,25 @@
         <v>61</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>454</v>
+        <v>8471</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>3044</v>
+        <v>21596</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>64</v>
@@ -1906,10 +1923,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>13125</v>
+        <v>2591</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>67</v>
@@ -1921,25 +1938,25 @@
         <v>69</v>
       </c>
       <c r="H14" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>8471</v>
+        <v>454</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M14" s="7">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>21596</v>
+        <v>3044</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>72</v>
@@ -1963,13 +1980,13 @@
         <v>15716</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -1978,13 +1995,13 @@
         <v>8925</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>39</v>
@@ -1993,13 +2010,13 @@
         <v>24640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,40 +2027,40 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>1360</v>
+        <v>13677</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>1664</v>
+        <v>9556</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="N16" s="7">
-        <v>3024</v>
+        <v>23233</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>80</v>
@@ -2061,40 +2078,40 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>13677</v>
+        <v>1360</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H17" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>9556</v>
+        <v>1664</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M17" s="7">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>23233</v>
+        <v>3024</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>87</v>
@@ -2118,13 +2135,13 @@
         <v>15037</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -2133,13 +2150,13 @@
         <v>11220</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>37</v>
@@ -2148,13 +2165,13 @@
         <v>26257</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,10 +2182,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="D19" s="7">
-        <v>6577</v>
+        <v>52148</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>90</v>
@@ -2180,10 +2197,10 @@
         <v>92</v>
       </c>
       <c r="H19" s="7">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I19" s="7">
-        <v>7985</v>
+        <v>32622</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>93</v>
@@ -2195,10 +2212,10 @@
         <v>95</v>
       </c>
       <c r="M19" s="7">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="N19" s="7">
-        <v>14562</v>
+        <v>84770</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>96</v>
@@ -2216,10 +2233,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>52148</v>
+        <v>6577</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>99</v>
@@ -2231,10 +2248,10 @@
         <v>101</v>
       </c>
       <c r="H20" s="7">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I20" s="7">
-        <v>32622</v>
+        <v>7985</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>102</v>
@@ -2246,10 +2263,10 @@
         <v>104</v>
       </c>
       <c r="M20" s="7">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="N20" s="7">
-        <v>84770</v>
+        <v>14562</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>105</v>
@@ -2273,13 +2290,13 @@
         <v>58725</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>61</v>
@@ -2288,13 +2305,13 @@
         <v>40607</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>149</v>
@@ -2303,13 +2320,18 @@
         <v>99332</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2330,8 +2352,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136F281A-FCEC-49B6-922E-7DF8303640B6}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFD7991-2F6A-4F10-8D02-3A30C7F4589D}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2347,7 +2369,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2452,43 +2474,43 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3342</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3342</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,43 +2523,43 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>3342</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>3342</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2572,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -2565,13 +2587,13 @@
         <v>3342</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -2580,13 +2602,13 @@
         <v>3342</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,49 +2619,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>2124</v>
+        <v>14881</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>2002</v>
+        <v>10202</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N7" s="7">
-        <v>4126</v>
+        <v>25084</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,49 +2670,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>14881</v>
+        <v>2124</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>10202</v>
+        <v>2002</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" s="7">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>25084</v>
+        <v>4126</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2727,13 @@
         <v>17005</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -2720,13 +2742,13 @@
         <v>12204</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>40</v>
@@ -2735,13 +2757,13 @@
         <v>29210</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,49 +2774,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>1320</v>
+        <v>16981</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>6256</v>
+        <v>18586</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="N10" s="7">
-        <v>7576</v>
+        <v>35567</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,49 +2825,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>16981</v>
+        <v>1320</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="H11" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>18586</v>
+        <v>6256</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="N11" s="7">
-        <v>35567</v>
+        <v>7576</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2882,13 @@
         <v>18301</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -2875,13 +2897,13 @@
         <v>24842</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -2890,13 +2912,13 @@
         <v>43143</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,49 +2929,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>3398</v>
+        <v>16317</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>3110</v>
+        <v>14394</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>6508</v>
+        <v>30710</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,10 +2980,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>16317</v>
+        <v>3398</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>155</v>
@@ -2973,10 +2995,10 @@
         <v>157</v>
       </c>
       <c r="H14" s="7">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>14394</v>
+        <v>3110</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>158</v>
@@ -2988,19 +3010,19 @@
         <v>160</v>
       </c>
       <c r="M14" s="7">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="N14" s="7">
-        <v>30710</v>
+        <v>6508</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>161</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +3037,13 @@
         <v>19715</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>27</v>
@@ -3030,13 +3052,13 @@
         <v>17504</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>56</v>
@@ -3045,13 +3067,13 @@
         <v>37218</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,49 +3084,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>2491</v>
+        <v>17061</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>23</v>
+      </c>
+      <c r="I16" s="7">
+        <v>17157</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3662</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>46</v>
+      </c>
+      <c r="N16" s="7">
+        <v>34217</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="M16" s="7">
-        <v>8</v>
-      </c>
-      <c r="N16" s="7">
-        <v>6153</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,49 +3135,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>17061</v>
+        <v>2491</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3662</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H17" s="7">
-        <v>23</v>
-      </c>
-      <c r="I17" s="7">
-        <v>17157</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>8</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6153</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="M17" s="7">
-        <v>46</v>
-      </c>
-      <c r="N17" s="7">
-        <v>34217</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3192,13 @@
         <v>19552</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -3185,13 +3207,13 @@
         <v>20819</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>54</v>
@@ -3200,13 +3222,13 @@
         <v>40370</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,49 +3239,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="D19" s="7">
-        <v>9333</v>
+        <v>65240</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="G19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="7">
+        <v>90</v>
+      </c>
+      <c r="I19" s="7">
+        <v>63680</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H19" s="7">
-        <v>22</v>
-      </c>
-      <c r="I19" s="7">
-        <v>15031</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>183</v>
+      </c>
+      <c r="N19" s="7">
+        <v>128920</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M19" s="7">
-        <v>35</v>
-      </c>
-      <c r="N19" s="7">
-        <v>24364</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,49 +3290,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="D20" s="7">
-        <v>65240</v>
+        <v>9333</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>22</v>
+      </c>
+      <c r="I20" s="7">
+        <v>15031</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20" s="7">
-        <v>90</v>
-      </c>
-      <c r="I20" s="7">
-        <v>63680</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>35</v>
+      </c>
+      <c r="N20" s="7">
+        <v>24364</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M20" s="7">
-        <v>183</v>
-      </c>
-      <c r="N20" s="7">
-        <v>128920</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3347,13 @@
         <v>74573</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>112</v>
@@ -3340,13 +3362,13 @@
         <v>78711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>218</v>
@@ -3355,13 +3377,18 @@
         <v>153284</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3382,8 +3409,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD03401E-0430-422A-8709-1FEDEE5C247E}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46664F5B-DD44-49EB-A956-1B5445A874DC}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3399,7 +3426,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3500,40 +3527,40 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1203</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2205</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -3551,40 +3578,40 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1003</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1203</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>2205</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>19</v>
@@ -3608,13 +3635,13 @@
         <v>1003</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3623,13 +3650,13 @@
         <v>1203</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -3638,13 +3665,13 @@
         <v>2205</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,49 +3682,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>652</v>
+        <v>4979</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6771</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3223</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>17</v>
+      </c>
+      <c r="N7" s="7">
+        <v>11750</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="M7" s="7">
-        <v>5</v>
-      </c>
-      <c r="N7" s="7">
-        <v>3876</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,49 +3733,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>4979</v>
+        <v>652</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>4</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3223</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>10</v>
-      </c>
-      <c r="I8" s="7">
-        <v>6771</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>5</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3876</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="M8" s="7">
-        <v>17</v>
-      </c>
-      <c r="N8" s="7">
-        <v>11750</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3790,13 @@
         <v>5631</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -3778,13 +3805,13 @@
         <v>9994</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -3793,13 +3820,13 @@
         <v>15626</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,49 +3837,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>1982</v>
+        <v>16083</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>27</v>
+      </c>
+      <c r="I10" s="7">
+        <v>16661</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2336</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>51</v>
+      </c>
+      <c r="N10" s="7">
+        <v>32745</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M10" s="7">
-        <v>7</v>
-      </c>
-      <c r="N10" s="7">
-        <v>4317</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,49 +3888,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>16083</v>
+        <v>1982</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2336</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H11" s="7">
-        <v>27</v>
-      </c>
-      <c r="I11" s="7">
-        <v>16661</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>7</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4317</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="M11" s="7">
-        <v>51</v>
-      </c>
-      <c r="N11" s="7">
-        <v>32745</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3945,13 @@
         <v>18065</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -3933,13 +3960,13 @@
         <v>18997</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>58</v>
@@ -3948,13 +3975,13 @@
         <v>37062</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,49 +3992,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>1291</v>
+        <v>13075</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>19</v>
+      </c>
+      <c r="I13" s="7">
+        <v>10753</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2691</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>40</v>
+      </c>
+      <c r="N13" s="7">
+        <v>23828</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="M13" s="7">
-        <v>6</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3982</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,49 +4043,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>13075</v>
+        <v>1291</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>4</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2691</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>19</v>
-      </c>
-      <c r="I14" s="7">
-        <v>10753</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>6</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3982</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M14" s="7">
-        <v>40</v>
-      </c>
-      <c r="N14" s="7">
-        <v>23828</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4100,13 @@
         <v>14366</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>23</v>
@@ -4088,13 +4115,13 @@
         <v>13444</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>46</v>
@@ -4103,13 +4130,13 @@
         <v>27810</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,49 +4147,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>718</v>
+        <v>11896</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I16" s="7">
-        <v>2112</v>
+        <v>16224</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>39</v>
+      </c>
+      <c r="N16" s="7">
+        <v>28121</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="M16" s="7">
-        <v>4</v>
-      </c>
-      <c r="N16" s="7">
-        <v>2830</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,49 +4198,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>11896</v>
+        <v>718</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H17" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>16224</v>
+        <v>2112</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>4</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2830</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="M17" s="7">
-        <v>39</v>
-      </c>
-      <c r="N17" s="7">
-        <v>28121</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4255,13 @@
         <v>12614</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -4243,13 +4270,13 @@
         <v>18336</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>43</v>
@@ -4258,13 +4285,13 @@
         <v>30951</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,49 +4302,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D19" s="7">
-        <v>4643</v>
+        <v>47036</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>80</v>
+      </c>
+      <c r="I19" s="7">
+        <v>51613</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H19" s="7">
-        <v>15</v>
-      </c>
-      <c r="I19" s="7">
-        <v>10362</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>149</v>
+      </c>
+      <c r="N19" s="7">
+        <v>98649</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="M19" s="7">
-        <v>22</v>
-      </c>
-      <c r="N19" s="7">
-        <v>15005</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,49 +4353,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D20" s="7">
-        <v>47036</v>
+        <v>4643</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>15</v>
+      </c>
+      <c r="I20" s="7">
+        <v>10362</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H20" s="7">
-        <v>80</v>
-      </c>
-      <c r="I20" s="7">
-        <v>51613</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>22</v>
+      </c>
+      <c r="N20" s="7">
+        <v>15005</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="M20" s="7">
-        <v>149</v>
-      </c>
-      <c r="N20" s="7">
-        <v>98649</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4410,13 @@
         <v>51679</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>95</v>
@@ -4398,13 +4425,13 @@
         <v>61975</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>171</v>
@@ -4413,13 +4440,18 @@
         <v>113654</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B02-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FDE2A07-4C5A-4ADB-A270-954C99BAB91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DB0258D-0629-4BA1-9E3A-E0B5291362A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{84EFD41A-8C7C-4B89-93CD-C7CB255AEF20}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C8B6680-EB6A-4A44-A8AB-148937BD19E8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="284">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2007 (Tasa respuesta: 7,08%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -85,13 +85,13 @@
     <t>82,87%</t>
   </si>
   <si>
-    <t>33,2%</t>
+    <t>34,0%</t>
   </si>
   <si>
     <t>87,19%</t>
   </si>
   <si>
-    <t>44,33%</t>
+    <t>48,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,67 +109,67 @@
     <t>17,13%</t>
   </si>
   <si>
-    <t>66,8%</t>
+    <t>66,0%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>60,16%</t>
+    <t>62,05%</t>
   </si>
   <si>
     <t>25,64%</t>
   </si>
   <si>
-    <t>64,15%</t>
+    <t>64,01%</t>
   </si>
   <si>
     <t>63,48%</t>
   </si>
   <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>39,84%</t>
+    <t>37,95%</t>
   </si>
   <si>
     <t>74,36%</t>
   </si>
   <si>
-    <t>35,85%</t>
+    <t>35,99%</t>
   </si>
   <si>
     <t>36,52%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>89,78%</t>
   </si>
   <si>
-    <t>75,57%</t>
+    <t>72,32%</t>
   </si>
   <si>
     <t>96,83%</t>
@@ -178,706 +178,718 @@
     <t>87,85%</t>
   </si>
   <si>
-    <t>63,49%</t>
+    <t>63,31%</t>
   </si>
   <si>
     <t>89,1%</t>
   </si>
   <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2012 (Tasa respuesta: 10,39%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2016 (Tasa respuesta: 8,04%)</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>22,12%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2012 (Tasa respuesta: 10,39%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2015 (Tasa respuesta: 8,04%)</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>86,8%</t>
   </si>
   <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
   </si>
   <si>
     <t>16,72%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1DA84C-C5AB-486F-A6E8-6B3ABAC57E1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB95B9E0-8EB5-44A0-8812-A6BC73A57307}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2352,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFD7991-2F6A-4F10-8D02-3A30C7F4589D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADDF496-8AA1-431F-B81D-0D8662D016ED}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2971,7 +2983,7 @@
         <v>154</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +2998,13 @@
         <v>3398</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -3001,13 +3013,13 @@
         <v>3110</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -3016,13 +3028,13 @@
         <v>6508</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,28 +3102,28 @@
         <v>17061</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
       </c>
       <c r="I16" s="7">
-        <v>17157</v>
+        <v>17156</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -3120,13 +3132,13 @@
         <v>34217</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3153,13 @@
         <v>2491</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -3156,13 +3168,13 @@
         <v>3662</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -3171,13 +3183,13 @@
         <v>6153</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,7 +3216,7 @@
         <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>20819</v>
+        <v>20818</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -3245,13 +3257,13 @@
         <v>65240</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="H19" s="7">
         <v>90</v>
@@ -3260,13 +3272,13 @@
         <v>63680</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M19" s="7">
         <v>183</v>
@@ -3275,13 +3287,13 @@
         <v>128920</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3308,13 @@
         <v>9333</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -3311,13 +3323,13 @@
         <v>15031</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M20" s="7">
         <v>35</v>
@@ -3326,13 +3338,13 @@
         <v>24364</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,7 +3421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46664F5B-DD44-49EB-A956-1B5445A874DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DE845E-96F8-4FB6-8690-A5D91F65E424}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3426,7 +3438,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3536,7 +3548,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3551,7 +3563,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3590,7 +3602,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3605,7 +3617,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3688,10 +3700,10 @@
         <v>4979</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -3703,13 +3715,13 @@
         <v>6771</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -3718,13 +3730,13 @@
         <v>11750</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3751,13 @@
         <v>652</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3754,13 +3766,13 @@
         <v>3223</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -3769,13 +3781,13 @@
         <v>3876</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3855,13 @@
         <v>16083</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3858,13 +3870,13 @@
         <v>16661</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -3873,13 +3885,13 @@
         <v>32745</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3906,13 @@
         <v>1982</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -3909,13 +3921,13 @@
         <v>2336</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -3924,13 +3936,13 @@
         <v>4317</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,10 +4010,10 @@
         <v>13075</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -4013,13 +4025,13 @@
         <v>10753</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4028,13 +4040,13 @@
         <v>23828</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4061,13 @@
         <v>1291</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -4064,13 +4076,13 @@
         <v>2691</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -4079,13 +4091,13 @@
         <v>3982</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,10 +4165,10 @@
         <v>11896</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -4171,10 +4183,10 @@
         <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -4183,13 +4195,13 @@
         <v>28121</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4216,13 @@
         <v>718</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4222,10 +4234,10 @@
         <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -4234,13 +4246,13 @@
         <v>2830</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4320,13 @@
         <v>47036</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -4323,13 +4335,13 @@
         <v>51613</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M19" s="7">
         <v>149</v>
@@ -4338,13 +4350,13 @@
         <v>98649</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4371,13 @@
         <v>4643</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -4374,13 +4386,13 @@
         <v>10362</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -4389,13 +4401,13 @@
         <v>15005</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16B02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DB0258D-0629-4BA1-9E3A-E0B5291362A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3DE7FB1-F753-4D2C-81F4-3E7776EE13DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C8B6680-EB6A-4A44-A8AB-148937BD19E8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F29A89A5-254E-4576-AEC6-CE941B99A979}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="267">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2007 (Tasa respuesta: 7,08%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,664 +67,622 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>43,07%</t>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
     <t>89,78%</t>
   </si>
   <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>89,1%</t>
   </si>
   <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
   </si>
   <si>
     <t>83,52%</t>
   </si>
   <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>87,65%</t>
   </si>
   <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
   </si>
   <si>
     <t>16,48%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
     <t>90,96%</t>
   </si>
   <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
+    <t>73,01%</t>
   </si>
   <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>74,94%</t>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2012 (Tasa respuesta: 10,39%)</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2016 (Tasa respuesta: 8,04%)</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
   </si>
   <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2012 (Tasa respuesta: 10,39%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2016 (Tasa respuesta: 8,04%)</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
+    <t>28,16%</t>
   </si>
   <si>
     <t>10,97%</t>
@@ -733,163 +691,154 @@
     <t>3,21%</t>
   </si>
   <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
+    <t>28,04%</t>
   </si>
   <si>
     <t>11,65%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>91,01%</t>
   </si>
   <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
+    <t>72,07%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
+    <t>27,93%</t>
   </si>
   <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
   </si>
   <si>
     <t>94,31%</t>
   </si>
   <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>75,63%</t>
   </si>
   <si>
     <t>90,86%</t>
   </si>
   <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
+    <t>24,37%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>86,8%</t>
   </si>
   <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>16,72%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
 </sst>
 </file>
@@ -1301,8 +1250,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB95B9E0-8EB5-44A0-8812-A6BC73A57307}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FD8E93-5CEC-45FA-B855-715955B898CA}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1419,10 +1368,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>1643</v>
+        <v>5323</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1434,10 +1383,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>4029</v>
+        <v>8008</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1446,73 +1395,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>5672</v>
+        <v>13331</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4586</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>833</v>
+        <v>654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>833</v>
+        <v>5240</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1521,153 +1470,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>1643</v>
+        <v>9909</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>13</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
       <c r="I6" s="7">
-        <v>4862</v>
+        <v>8662</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="N6" s="7">
-        <v>6505</v>
+        <v>18571</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>6365</v>
+        <v>9271</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>1294</v>
+        <v>17337</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="N7" s="7">
-        <v>7659</v>
+        <v>26609</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>654</v>
+        <v>1282</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>3753</v>
+        <v>1973</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>4407</v>
+        <v>3254</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1676,153 +1625,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7">
-        <v>7019</v>
+        <v>10553</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I9" s="7">
-        <v>5047</v>
+        <v>19310</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="N9" s="7">
-        <v>12066</v>
+        <v>29863</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>17337</v>
+        <v>8471</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>9271</v>
+        <v>13125</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>26609</v>
+        <v>21596</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1973</v>
+        <v>454</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>1282</v>
+        <v>2591</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>3254</v>
+        <v>3044</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1831,153 +1780,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>19310</v>
+        <v>8925</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I12" s="7">
-        <v>10553</v>
+        <v>15716</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N12" s="7">
-        <v>29863</v>
+        <v>24640</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9556</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="7">
         <v>20</v>
       </c>
-      <c r="D13" s="7">
-        <v>13125</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="7">
-        <v>14</v>
-      </c>
       <c r="I13" s="7">
-        <v>8471</v>
+        <v>13677</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>21596</v>
+        <v>23233</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1664</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1360</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="7">
         <v>4</v>
       </c>
-      <c r="D14" s="7">
-        <v>2591</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>454</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" s="7">
-        <v>5</v>
-      </c>
       <c r="N14" s="7">
-        <v>3044</v>
+        <v>3024</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,153 +1935,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>15716</v>
+        <v>11220</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I15" s="7">
-        <v>8925</v>
+        <v>15037</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N15" s="7">
-        <v>24640</v>
+        <v>26257</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D16" s="7">
-        <v>13677</v>
+        <v>32622</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="I16" s="7">
-        <v>9556</v>
+        <v>52148</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="N16" s="7">
-        <v>23233</v>
+        <v>84770</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>1360</v>
+        <v>7985</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>1664</v>
+        <v>6577</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N17" s="7">
-        <v>3024</v>
+        <v>14562</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,217 +2090,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D18" s="7">
-        <v>15037</v>
+        <v>40607</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="I18" s="7">
-        <v>11220</v>
+        <v>58725</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="N18" s="7">
-        <v>26257</v>
+        <v>99332</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>78</v>
-      </c>
-      <c r="D19" s="7">
-        <v>52148</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="7">
-        <v>49</v>
-      </c>
-      <c r="I19" s="7">
-        <v>32622</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M19" s="7">
-        <v>127</v>
-      </c>
-      <c r="N19" s="7">
-        <v>84770</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q19" s="7" t="s">
+      <c r="A19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>10</v>
-      </c>
-      <c r="D20" s="7">
-        <v>6577</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="7">
-        <v>12</v>
-      </c>
-      <c r="I20" s="7">
-        <v>7985</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="7">
-        <v>22</v>
-      </c>
-      <c r="N20" s="7">
-        <v>14562</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>88</v>
-      </c>
-      <c r="D21" s="7">
-        <v>58725</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>61</v>
-      </c>
-      <c r="I21" s="7">
-        <v>40607</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>149</v>
-      </c>
-      <c r="N21" s="7">
-        <v>99332</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2364,8 +2157,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADDF496-8AA1-431F-B81D-0D8662D016ED}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52793EBA-C205-483B-A0F3-FB48525EE442}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2381,7 +2174,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2482,96 +2275,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D4" s="7">
+        <v>13545</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>3342</v>
+        <v>14881</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="N4" s="7">
-        <v>3342</v>
+        <v>28426</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2002</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>110</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>2124</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>4126</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,151 +2377,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15547</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>3342</v>
+        <v>17005</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="N6" s="7">
-        <v>3342</v>
+        <v>32552</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>14881</v>
+        <v>18586</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>10202</v>
+        <v>16981</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="N7" s="7">
-        <v>25084</v>
+        <v>35567</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>2124</v>
+        <v>6256</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>2002</v>
+        <v>1320</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N8" s="7">
-        <v>4126</v>
+        <v>7576</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,153 +2532,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7">
-        <v>17005</v>
+        <v>24842</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I9" s="7">
-        <v>12204</v>
+        <v>18301</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="N9" s="7">
-        <v>29210</v>
+        <v>43143</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>16981</v>
+        <v>14394</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>18586</v>
+        <v>16317</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N10" s="7">
-        <v>35567</v>
+        <v>30710</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>1320</v>
+        <v>3110</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>6256</v>
+        <v>3398</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>7576</v>
+        <v>6508</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,150 +2690,150 @@
         <v>27</v>
       </c>
       <c r="D12" s="7">
-        <v>18301</v>
+        <v>17504</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I12" s="7">
-        <v>24842</v>
+        <v>19715</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="N12" s="7">
-        <v>43143</v>
+        <v>37218</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>16317</v>
+        <v>17157</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>14394</v>
+        <v>17061</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>30710</v>
+        <v>34217</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>3398</v>
+        <v>3662</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>3110</v>
+        <v>2491</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>6508</v>
+        <v>6153</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,153 +2842,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7">
-        <v>19715</v>
+        <v>20819</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15" s="7">
-        <v>17504</v>
+        <v>19552</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N15" s="7">
-        <v>37218</v>
+        <v>40370</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="D16" s="7">
-        <v>17061</v>
+        <v>63680</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="I16" s="7">
-        <v>17156</v>
+        <v>65240</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="M16" s="7">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="N16" s="7">
-        <v>34217</v>
+        <v>128920</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>2491</v>
+        <v>15031</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>3662</v>
+        <v>9333</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="N17" s="7">
-        <v>6153</v>
+        <v>24364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,217 +2997,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="D18" s="7">
-        <v>19552</v>
+        <v>78711</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="I18" s="7">
-        <v>20818</v>
+        <v>74573</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="N18" s="7">
-        <v>40370</v>
+        <v>153284</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>93</v>
-      </c>
-      <c r="D19" s="7">
-        <v>65240</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H19" s="7">
-        <v>90</v>
-      </c>
-      <c r="I19" s="7">
-        <v>63680</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M19" s="7">
-        <v>183</v>
-      </c>
-      <c r="N19" s="7">
-        <v>128920</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>13</v>
-      </c>
-      <c r="D20" s="7">
-        <v>9333</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H20" s="7">
-        <v>22</v>
-      </c>
-      <c r="I20" s="7">
-        <v>15031</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M20" s="7">
-        <v>35</v>
-      </c>
-      <c r="N20" s="7">
-        <v>24364</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>106</v>
-      </c>
-      <c r="D21" s="7">
-        <v>74573</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>112</v>
-      </c>
-      <c r="I21" s="7">
-        <v>78711</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>218</v>
-      </c>
-      <c r="N21" s="7">
-        <v>153284</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3421,8 +3064,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DE845E-96F8-4FB6-8690-A5D91F65E424}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446AB69A-3694-4222-9C10-2BBEE2C13A1E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3438,7 +3081,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3539,100 +3182,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>1003</v>
+        <v>7974</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>1203</v>
+        <v>5982</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>2205</v>
+        <v>13955</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>3223</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>3876</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,78 +3284,78 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7">
-        <v>1003</v>
+        <v>11197</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>1203</v>
+        <v>6634</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="N6" s="7">
-        <v>2205</v>
+        <v>17831</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>4979</v>
+        <v>16661</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>6771</v>
+        <v>16083</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>206</v>
@@ -3724,10 +3367,10 @@
         <v>208</v>
       </c>
       <c r="M7" s="7">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="N7" s="7">
-        <v>11750</v>
+        <v>32745</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>209</v>
@@ -3742,52 +3385,52 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>652</v>
+        <v>2336</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>3223</v>
+        <v>1982</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>3876</v>
+        <v>4317</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,93 +3439,93 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7">
-        <v>5631</v>
+        <v>18997</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I9" s="7">
-        <v>9994</v>
+        <v>18065</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="N9" s="7">
-        <v>15626</v>
+        <v>37062</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>16083</v>
+        <v>10753</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H10" s="7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>16661</v>
+        <v>13075</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N10" s="7">
-        <v>32745</v>
+        <v>23828</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>226</v>
@@ -3897,13 +3540,13 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>1982</v>
+        <v>2691</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>229</v>
@@ -3915,34 +3558,34 @@
         <v>231</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>2336</v>
+        <v>1291</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>6</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3982</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="M11" s="7">
-        <v>7</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4317</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,153 +3594,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7">
-        <v>18065</v>
+        <v>13444</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I12" s="7">
-        <v>18997</v>
+        <v>14366</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="N12" s="7">
-        <v>37062</v>
+        <v>27810</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>13075</v>
+        <v>16224</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>16</v>
+      </c>
+      <c r="I13" s="7">
+        <v>11896</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10753</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="7">
+        <v>39</v>
+      </c>
+      <c r="N13" s="7">
+        <v>28121</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="M13" s="7">
-        <v>40</v>
-      </c>
-      <c r="N13" s="7">
-        <v>23828</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>1291</v>
+        <v>2112</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>718</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H14" s="7">
+      <c r="M14" s="7">
         <v>4</v>
       </c>
-      <c r="I14" s="7">
-        <v>2691</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="N14" s="7">
+        <v>2830</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="M14" s="7">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3982</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,153 +3749,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7">
-        <v>14366</v>
+        <v>18336</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I15" s="7">
-        <v>13444</v>
+        <v>12614</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N15" s="7">
-        <v>27810</v>
+        <v>30951</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="D16" s="7">
-        <v>11896</v>
+        <v>51613</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H16" s="7">
+        <v>69</v>
+      </c>
+      <c r="I16" s="7">
+        <v>47036</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>23</v>
-      </c>
-      <c r="I16" s="7">
-        <v>16224</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>149</v>
+      </c>
+      <c r="N16" s="7">
+        <v>98649</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="M16" s="7">
-        <v>39</v>
-      </c>
-      <c r="N16" s="7">
-        <v>28121</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>718</v>
+        <v>10362</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4643</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2112</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>22</v>
+      </c>
+      <c r="N17" s="7">
+        <v>15005</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2830</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,217 +3904,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="D18" s="7">
-        <v>12614</v>
+        <v>61975</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I18" s="7">
-        <v>18336</v>
+        <v>51679</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="N18" s="7">
-        <v>30951</v>
+        <v>113654</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>69</v>
-      </c>
-      <c r="D19" s="7">
-        <v>47036</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H19" s="7">
-        <v>80</v>
-      </c>
-      <c r="I19" s="7">
-        <v>51613</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="M19" s="7">
-        <v>149</v>
-      </c>
-      <c r="N19" s="7">
-        <v>98649</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>7</v>
-      </c>
-      <c r="D20" s="7">
-        <v>4643</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H20" s="7">
-        <v>15</v>
-      </c>
-      <c r="I20" s="7">
-        <v>10362</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="M20" s="7">
-        <v>22</v>
-      </c>
-      <c r="N20" s="7">
-        <v>15005</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>76</v>
-      </c>
-      <c r="D21" s="7">
-        <v>51679</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>95</v>
-      </c>
-      <c r="I21" s="7">
-        <v>61975</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>171</v>
-      </c>
-      <c r="N21" s="7">
-        <v>113654</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
